--- a/matriz_individuos.xlsx
+++ b/matriz_individuos.xlsx
@@ -496,16 +496,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FC50&gt;</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FB50&gt;</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -526,16 +518,8 @@
       <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6F810&gt;</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3930EB050&gt;</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -556,16 +540,8 @@
       <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F88210&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FDD0&gt;</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -586,16 +562,8 @@
       <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FBD0&gt;</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F88090&gt;</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -616,16 +584,8 @@
       <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE650&gt;</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6F4D0&gt;</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -646,16 +606,8 @@
       <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6F910&gt;</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3941A65D0&gt;</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -676,16 +628,8 @@
       <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F88390&gt;</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE510&gt;</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -706,16 +650,8 @@
       <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FE90&gt;</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6F890&gt;</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -736,16 +672,8 @@
       <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE4D0&gt;</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F88450&gt;</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -766,16 +694,8 @@
       <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394467C90&gt;</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3FF0D0D50&gt;</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -796,16 +716,8 @@
       <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE610&gt;</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F882D0&gt;</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -826,16 +738,8 @@
       <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE950&gt;</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE850&gt;</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -856,16 +760,8 @@
       <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394B93550&gt;</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FF50&gt;</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -886,16 +782,8 @@
       <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394102010&gt;</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3930EA750&gt;</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -916,16 +804,8 @@
       <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394C9F590&gt;</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FD10&gt;</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -946,16 +826,8 @@
       <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FAD0&gt;</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F6FA50&gt;</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -976,16 +848,8 @@
       <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE6D0&gt;</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE490&gt;</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1006,16 +870,8 @@
       <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE690&gt;</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3930EB0D0&gt;</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1036,16 +892,8 @@
       <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A3940EE790&gt;</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F88150&gt;</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1066,16 +914,8 @@
       <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A393091F10&gt;</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Individual object at 0x000001A394F8A690&gt;</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
